--- a/biology/Botanique/Patata_di_montagna_di_Cesana/Patata_di_montagna_di_Cesana.xlsx
+++ b/biology/Botanique/Patata_di_montagna_di_Cesana/Patata_di_montagna_di_Cesana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La patate di montagna di Cesana (pommes de terre de Césane), appelées aussi Piatlina di Cesana[1], est une production de pommes de terre typique de Césane, dans la province de Turin (Italie).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patate di montagna di Cesana (pommes de terre de Césane), appelées aussi Piatlina di Cesana, est une production de pommes de terre typique de Césane, dans la province de Turin (Italie).
 </t>
         </is>
       </c>
